--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719566.8175805962</v>
+        <v>717679.2360641941</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>308.3263811417659</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>125.872192856332</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>336.4390971413754</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V7" t="n">
-        <v>2.161932497468227</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.1305869217208</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>114.3875550887382</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.1620927780571</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.4704758913031</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>86.50175674946527</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.972061646353727</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185851</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052011</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.77945773664933</v>
       </c>
       <c r="C19" t="n">
-        <v>12.71108159480312</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.49364742074893</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>105.6571329437494</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274765</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>140.1188684221821</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185899</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>258.8975118102057</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.6571329437496</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896555</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801231</v>
+        <v>22.14609241444612</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437439</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>38.17624413233776</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789515</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626914</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.706141594827</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.240383333747</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.240383333747</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>600.9853550586245</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>600.9853550586245</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>600.9853550586245</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>600.9853550586245</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1893.689751284806</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1524.727234344394</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>1524.727234344394</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.93898174615</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.689751284806</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>548.3816362947775</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646715</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.451536646715</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.312204670903</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245973</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245973</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5127,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1651.324348736746</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500524</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>633.0749397819056</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383755</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M15" t="n">
-        <v>1321.461721072713</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>585.5099430858311</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>364.7173639423009</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141297</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.347833878255</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>426.1449830812455</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227929</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227929</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227929</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X19" t="n">
-        <v>646.9375622247755</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.1449830812455</v>
+        <v>157.600382103366</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>474.8900731662875</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923176</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.5778697504958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>544.6416868225889</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,10 +5908,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259998</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X22" t="n">
-        <v>785.7936752259998</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>785.7936752259998</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.32138455061</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610198</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003448</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405203</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155959</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080554</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822533</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643328</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465308</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121738</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851623</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590543</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614732</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126487</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>570.0299571250929</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315576</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.11521831152</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975553</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278214</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557905</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473457</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262963</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>933.6766347355067</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V25" t="n">
-        <v>933.6766347355067</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W25" t="n">
-        <v>644.259464698546</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="X25" t="n">
-        <v>416.2699138005287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.2699138005287</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>474.8900731662836</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>1088.787142923173</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203135</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867169</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085866</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821614</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471206</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473457</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754434</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384828</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404655</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404655</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1689.561836756086</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>2019.424464420119</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541584</v>
+        <v>439.532429954218</v>
       </c>
       <c r="C31" t="n">
-        <v>487.268632507622</v>
+        <v>326.3571123076819</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766569</v>
+        <v>232.0013381767169</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756345</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590948</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962042</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1897.564200296135</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.539650367012</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.171876861941</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.248253937424</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.591949181834</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651871</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030276</v>
+        <v>565.420029503087</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1564.731711769082</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1894.594339433114</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>2174.134404651812</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2379.156885434021</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045196</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010305</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6959,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>1564.731711769082</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7391,49 +7391,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
@@ -7479,37 +7479,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>806.1650729342614</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214223</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878256</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,19 +7658,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1925.814757496977</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451758</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>18.73797368291349</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>113.602692129454</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>274.3657496970632</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>32.78140656352424</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>189.0022427662467</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.13752431970582</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>159.0121003135191</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714753</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>62.91120742583314</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>297.3877236703341</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>32.78140656352423</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>5.100663089359216</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>113.6026921294536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>148.1350559470645</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>171.2966883299264</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>9.900512684486102</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.8856946302406</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>85.66716743252493</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>139.2078986395719</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.8599185355836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.052522445288</v>
       </c>
       <c r="C19" t="n">
-        <v>154.5357395038247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.3383327611884</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>146.4805103800786</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.1184839763952</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>27.3398405883716</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>146.4805103800784</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.084613603566</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897927</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571513</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523594</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.5413092227086</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>369468.7964389274</v>
+      </c>
+      <c r="C2" t="n">
         <v>369468.7964389275</v>
-      </c>
-      <c r="C2" t="n">
-        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="F2" t="n">
         <v>351926.153763938</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="I2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107431</v>
+        <v>366139.9236107424</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389282</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389281</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.521292567005731e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.510639322077623e-09</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284448</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086703</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007379</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007156</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.731656007466</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020396</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732801</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732802</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871675</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-451275.2095549475</v>
+        <v>-451275.2095549473</v>
       </c>
       <c r="C6" t="n">
-        <v>138692.6696595971</v>
+        <v>138692.6696595972</v>
       </c>
       <c r="D6" t="n">
         <v>138692.6696595972</v>
       </c>
       <c r="E6" t="n">
-        <v>-273137.940317682</v>
+        <v>-273235.3994436542</v>
       </c>
       <c r="F6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="G6" t="n">
-        <v>252022.0961592133</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="H6" t="n">
-        <v>252022.0961592144</v>
+        <v>251924.6370332416</v>
       </c>
       <c r="I6" t="n">
-        <v>252022.0961592126</v>
+        <v>251924.6370332415</v>
       </c>
       <c r="J6" t="n">
-        <v>75598.87696662112</v>
+        <v>75501.41784064882</v>
       </c>
       <c r="K6" t="n">
-        <v>199267.7556074719</v>
+        <v>199249.2618695356</v>
       </c>
       <c r="L6" t="n">
-        <v>231075.2649207078</v>
+        <v>231075.264920708</v>
       </c>
       <c r="M6" t="n">
-        <v>106617.1564877376</v>
+        <v>106617.1564877373</v>
       </c>
       <c r="N6" t="n">
-        <v>241418.1717215749</v>
+        <v>241418.1717215746</v>
       </c>
       <c r="O6" t="n">
-        <v>241418.1717215741</v>
+        <v>241418.1717215746</v>
       </c>
       <c r="P6" t="n">
-        <v>197255.5664187293</v>
+        <v>197255.5664187291</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26802,13 +26802,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,25 +26966,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.158768751576818e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545539</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>40.91458757564715</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>86.27334609368692</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.31325977179802</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>70.43694860033605</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V7" t="n">
-        <v>249.9757108263598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.60325474175977</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.02815772023332</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.66988740388015</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.657415632435896e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-6.460684526174173e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565528</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458555</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171323</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355125</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>351.9325470809263</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>363.8358297686019</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>424.0270691799203</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>607.5603230950762</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>120.7944393485983</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>339.5776813541859</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>309.5875389014588</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.257704956025</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178385</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315253</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109059</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>213.4866460137729</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594841</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>579.7514259114423</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714625</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686883</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>315.1451088046324</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>212.194078020884</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412238</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004316</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>446.7972655274665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>246.8854746890071</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>481.3296293450774</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>453.6603905710345</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>259.1582176405104</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043991</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>395.9791095617652</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
